--- a/biology/Botanique/Aequatorium/Aequatorium.xlsx
+++ b/biology/Botanique/Aequatorium/Aequatorium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aequatorium  est un genre de plantes à fleurs de la famille des Asteraceae.
 </t>
@@ -511,12 +523,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juin 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juin 2018) :
 Aequatorium asterotrichum B. Nord.
 Aequatorium jamesonii (S.F. Blake) C. Jeffrey
-Selon Catalogue of Life                                   (24 juin 2018)[3] :
+Selon Catalogue of Life                                   (24 juin 2018) :
 Aequatorium albiflorum (Wedd.) Cuatrec. &amp; S. Díaz-Piedrahíta
 Aequatorium asterotrichum B.Nord.
 Aequatorium caucanum S. Díaz Piedrahita &amp; Cuatrec.
@@ -530,10 +544,10 @@
 Aequatorium tatamanum S. Diaz-Piedrahita &amp; A. Correa
 Aequatorium venezuelanum V. M. Badillo
 Aequatorium verrucosum (Wedd.) S. Díaz-Piedrahíta &amp; Cuatrec.
-Selon NCBI  (24 juin 2018)[4] :
+Selon NCBI  (24 juin 2018) :
 Aequatorium asterotrichum B.Nord.
 Aequatorium lepidotum B.Nord.
-Selon The Plant List            (24 juin 2018)[5] :
+Selon The Plant List            (24 juin 2018) :
 Aequatorium albiflorum (Wedd.) Cuatrec. &amp; S.Díaz
 Aequatorium asterotrichum B.Nord.
 Aequatorium cajamarcense H.Rob. &amp; Cuatrec.
@@ -557,7 +571,7 @@
 Aequatorium tuestae (Cuatrec.) H.Rob. &amp; Cuatrec.
 Aequatorium venezuelanum V.M.Badillo
 Aequatorium verrucosum (Wedd.) S.Díaz &amp; Cuatrec.
-Selon Tropicos                                           (24 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 Aequatorium albiflorum (Wedd.) Cuatrec. &amp; S. Díaz
 Aequatorium asterotrichum B. Nord.
 Aequatorium cajamarcense H. Rob. &amp; Cuatrec.
@@ -583,7 +597,7 @@
 Aequatorium tuestae (Cuatrec.) H. Rob. &amp; Cuatrec.
 Aequatorium venezuelanum V.M. Badillo
 Aequatorium verrucosum (Wedd.) S. Díaz &amp; Cuatrec.
-Selon World Register of Marine Species                               (24 juin 2018)[6] :
+Selon World Register of Marine Species                               (24 juin 2018) :
 Aequatorium albiflorum (Wedd.) Cuatrec. &amp; S.Díaz
 Aequatorium asterotrichum B.Nord.
 Aequatorium cajamarcense H.Rob. &amp; Cuatrec.
